--- a/storage/templates/dashboard.xlsx
+++ b/storage/templates/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/code/cost-control/storage/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466B5365-0988-D94F-8A07-9E18A4DC41A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66AF844-A7E8-E747-953F-BA7602FFA929}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15560" xr2:uid="{5FBE2839-F582-2646-B20D-A87EA405C870}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>AlKifah Contracting Company</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>Time Extension (Days)</t>
+  </si>
+  <si>
+    <t>Budget Information</t>
+  </si>
+  <si>
+    <t>Revision 0</t>
+  </si>
+  <si>
+    <t>Last Revision</t>
+  </si>
+  <si>
+    <t>Total Budget Cost</t>
+  </si>
+  <si>
+    <t>Direct Cost</t>
+  </si>
+  <si>
+    <t>Indirect Cost</t>
+  </si>
+  <si>
+    <t>Management Reserve</t>
+  </si>
+  <si>
+    <t>EAC Contract Amount</t>
+  </si>
+  <si>
+    <t>Planned Profit</t>
+  </si>
+  <si>
+    <t>Planned Profitability</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
   </si>
 </sst>
 </file>
@@ -163,12 +196,73 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -177,7 +271,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -185,34 +279,64 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -223,8 +347,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6CB2EB"/>
       <color rgb="FFBCDEFA"/>
-      <color rgb="FF6CB2EB"/>
       <color rgb="FFDAE1E7"/>
       <color rgb="FF38C172"/>
       <color rgb="FF1F9D55"/>
@@ -542,100 +666,104 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -654,26 +782,26 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -692,22 +820,22 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -728,26 +856,26 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -766,26 +894,26 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -805,21 +933,23 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -839,137 +969,155 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="D22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -992,21 +1140,23 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -1027,20 +1177,35 @@
       <c r="O32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H12:I12"/>
+  <mergeCells count="57">
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M10:N10"/>
@@ -1057,9 +1222,19 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/storage/templates/dashboard.xlsx
+++ b/storage/templates/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/code/cost-control/storage/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66AF844-A7E8-E747-953F-BA7602FFA929}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F88D6-A236-914F-9824-32C44646DECD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15560" xr2:uid="{5FBE2839-F582-2646-B20D-A87EA405C870}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>AlKifah Contracting Company</t>
   </si>
@@ -106,6 +106,51 @@
   </si>
   <si>
     <t>Actual Data</t>
+  </si>
+  <si>
+    <t>Actual Cost</t>
+  </si>
+  <si>
+    <t>Allowable Cost</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Cost Progress</t>
+  </si>
+  <si>
+    <t>Time Progress</t>
+  </si>
+  <si>
+    <t>Time Remaining (Days)</t>
+  </si>
+  <si>
+    <t>Time Elapsed (Days)</t>
+  </si>
+  <si>
+    <t>Expected Duration (Days)</t>
+  </si>
+  <si>
+    <t>Duration Variance (Days)</t>
+  </si>
+  <si>
+    <t>Material Consumption Index</t>
+  </si>
+  <si>
+    <t>Expected Profitability</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>Expected Finish Date</t>
+  </si>
+  <si>
+    <t>Actual Start Date</t>
   </si>
 </sst>
 </file>
@@ -271,7 +316,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -335,6 +380,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,16 +712,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7C37A-BA4E-AD41-9F0A-D096FB2B1015}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -766,7 +816,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -878,7 +928,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1176,11 +1226,149 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="K33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="K35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="F37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="K37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="F39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="K39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="F41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="K41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="5"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="88">
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H25:K25"/>
@@ -1242,7 +1430,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{D928BD82-6516-1C42-BA0A-3FBBB3378F88}">
+          <x14:cfRule type="iconSet" priority="17" id="{D928BD82-6516-1C42-BA0A-3FBBB3378F88}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1258,7 +1446,7 @@
           <xm:sqref>C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{1A95F9C3-69AF-3348-9C6B-6BB8EF954974}">
+          <x14:cfRule type="iconSet" priority="16" id="{1A95F9C3-69AF-3348-9C6B-6BB8EF954974}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1272,6 +1460,246 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>H18:I18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{9E73BF81-AF42-9249-B6E1-3786C2D54AC7}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{72147BC1-B88C-9446-A3AB-B106876C419A}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{A3DA127A-D3D7-C048-9501-254F5A38226F}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{9D23D32B-47D8-F840-B39C-06CF764E2CA2}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{685B6749-C36A-CD45-83F9-D12FB15DE4FC}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{EC4110DB-7C92-0F4E-A521-0E9F00FB4EC9}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{09AF93F1-66E5-E54C-B170-A54E864BB406}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{EB27CAA5-963F-DA4C-9E0F-A0BEC393EC0D}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{42BD866D-D714-E14C-A9AF-374E8BACDAFA}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{58C94FB3-BB87-A54E-9EF5-C90ADF78BD36}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{8AB13749-C7AB-2D48-B84A-9A5442D78A22}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{CD32025F-264E-F946-B967-0DFB04623A1D}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{2D78B18C-DDEA-364B-9240-970440B2FE7D}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{5BB2996E-0151-0B44-9D50-8C8DD1CE7C7F}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{A56B9A7E-0FCD-D249-8007-D48F36E50189}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>$C$10</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/storage/templates/dashboard.xlsx
+++ b/storage/templates/dashboard.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/code/cost-control/storage/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F88D6-A236-914F-9824-32C44646DECD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292CC7D9-189D-9441-9D78-5F239C34097E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15560" xr2:uid="{5FBE2839-F582-2646-B20D-A87EA405C870}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>AlKifah Contracting Company</t>
   </si>
@@ -151,6 +151,63 @@
   </si>
   <si>
     <t>Actual Start Date</t>
+  </si>
+  <si>
+    <t>Cost Summary</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Todate</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>at Completion Cost</t>
+  </si>
+  <si>
+    <t>at Completion Cost Variance</t>
+  </si>
+  <si>
+    <t>Base Line</t>
+  </si>
+  <si>
+    <t>Previous Cost</t>
+  </si>
+  <si>
+    <t>Allowable (Ev) Cost</t>
+  </si>
+  <si>
+    <t>to Date Cost</t>
+  </si>
+  <si>
+    <t>to Date Cost Variance</t>
+  </si>
+  <si>
+    <t>Remaining Cost</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Most Likely</t>
+  </si>
+  <si>
+    <t>Pessimistic</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Indirect</t>
   </si>
 </sst>
 </file>
@@ -209,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +297,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2779BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -274,16 +337,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color theme="0"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -292,9 +353,7 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -302,12 +361,30 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -316,7 +393,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,38 +429,62 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,10 +499,10 @@
     <mruColors>
       <color rgb="FF6CB2EB"/>
       <color rgb="FFBCDEFA"/>
+      <color rgb="FF2779BD"/>
       <color rgb="FFDAE1E7"/>
       <color rgb="FF38C172"/>
       <color rgb="FF1F9D55"/>
-      <color rgb="FF2779BD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -712,17 +813,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7C37A-BA4E-AD41-9F0A-D096FB2B1015}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1023,154 +1134,153 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="13" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1268,8 +1378,8 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
@@ -1309,8 +1419,8 @@
         <v>37</v>
       </c>
       <c r="L39" s="5"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -1318,8 +1428,8 @@
         <v>31</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
       <c r="F41" s="5" t="s">
         <v>32</v>
       </c>
@@ -1330,11 +1440,448 @@
         <v>38</v>
       </c>
       <c r="L41" s="5"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+    </row>
+    <row r="48" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+    </row>
+    <row r="49" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+    </row>
+    <row r="50" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="96">
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:N45"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="M37:N37"/>
@@ -1355,8 +1902,6 @@
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
     <mergeCell ref="A31:N31"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A39:B39"/>
@@ -1369,31 +1914,18 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="A20:N20"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M10:N10"/>

--- a/storage/templates/dashboard.xlsx
+++ b/storage/templates/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/code/cost-control/storage/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292CC7D9-189D-9441-9D78-5F239C34097E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551AC214-483B-0B44-9813-1C411528F87D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15560" xr2:uid="{5FBE2839-F582-2646-B20D-A87EA405C870}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>AlKifah Contracting Company</t>
   </si>
@@ -208,6 +208,39 @@
   </si>
   <si>
     <t>Indirect</t>
+  </si>
+  <si>
+    <t>CPI Trend Analysis</t>
+  </si>
+  <si>
+    <t>SPI Trend Analysis</t>
+  </si>
+  <si>
+    <t>CPI period</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Spi Period</t>
+  </si>
+  <si>
+    <t>Waste Index Periods</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>prod. Index Period</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual cost </t>
+  </si>
+  <si>
+    <t>remaining cost</t>
   </si>
 </sst>
 </file>
@@ -393,7 +426,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,6 +520,7 @@
     <xf numFmtId="40" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -514,6 +548,875 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPI Trend Analysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dashboard!$AA$69:$AF$69</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AA$70:$AF$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68DD-8D4C-AB0A-01254D2B4D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="918141231"/>
+        <c:axId val="918145263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="918141231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918145263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918145263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918141231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E335416-C029-1148-8B9C-B07119A407B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7C37A-BA4E-AD41-9F0A-D096FB2B1015}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="R52" workbookViewId="0">
+      <selection activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,21 +2536,25 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="I52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
@@ -1841,7 +2748,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1857,8 +2764,66 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z69" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="33"/>
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="33"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z84" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="98">
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="I52:N52"/>
     <mergeCell ref="E28:I28"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="J22:N22"/>
@@ -1958,6 +2923,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/storage/templates/dashboard.xlsx
+++ b/storage/templates/dashboard.xlsx
@@ -8,13 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/code/cost-control/storage/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551AC214-483B-0B44-9813-1C411528F87D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF5D2DA-4D51-C844-B782-98B4CCAC77C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15560" xr2:uid="{5FBE2839-F582-2646-B20D-A87EA405C870}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Dashboard!$A$87</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Dashboard!$AA$83:$AB$83</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Dashboard!$AA$83:$AB$83</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Dashboard!$AA$84:$AB$84</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Dashboard!$A$87</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Dashboard!$AA$83:$AB$83</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Dashboard!$AA$84:$AB$84</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Dashboard!$AA$86:$AB$86</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Dashboard!$AA$87:$AB$87</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Dashboard!$I$87</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Dashboard!$A$87</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Dashboard!$AA$83:$AB$83</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Dashboard!$AA$84:$AB$84</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Dashboard!$AA$84:$AB$84</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Dashboard!$AA$86:$AB$86</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Dashboard!$AA$87:$AB$87</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Dashboard!$I$87</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Dashboard!$AA$86:$AB$86</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Dashboard!$AA$87:$AB$87</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Dashboard!$I$87</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Dashboard!$A$87</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>AlKifah Contracting Company</t>
   </si>
@@ -237,19 +260,38 @@
     <t>Values</t>
   </si>
   <si>
-    <t xml:space="preserve">actual cost </t>
+    <t>-</t>
   </si>
   <si>
-    <t>remaining cost</t>
+    <t xml:space="preserve">Actual cost </t>
+  </si>
+  <si>
+    <t>Material Consumption Index Trend Analysis</t>
+  </si>
+  <si>
+    <t>Productivity Index Trend Analysis</t>
+  </si>
+  <si>
+    <t>Cost Percentage</t>
+  </si>
+  <si>
+    <t>Progress Percentage</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Planned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -426,60 +468,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,13 +491,14 @@
     <xf numFmtId="40" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,13 +510,62 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -578,16 +623,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -615,7 +660,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -624,35 +669,115 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Dashboard!$AA$69:$AF$69</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$AA$70:$AF$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -664,14 +789,14 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="918141231"/>
         <c:axId val="918145263"/>
@@ -683,7 +808,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -705,7 +830,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -748,7 +873,21 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -780,6 +919,1685 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="918141231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$I$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPI Trend Analysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$AA$72:$AF$72</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AA$73:$AF$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5CE-684E-B2AC-9444961E8462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="918141231"/>
+        <c:axId val="918145263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="918141231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918145263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918145263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918141231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Material Consumption Index Trend Analysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$AA$76:$AF$76</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AA$77:$AF$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC27-744C-80E3-232F6CA204C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="918141231"/>
+        <c:axId val="918145263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="918141231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918145263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918145263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918141231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$I$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Productivity Index Trend Analysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$AA$80:$AF$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AA$81:$AF$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2147-F347-8C92-C57EDA398532}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="918141231"/>
+        <c:axId val="918145263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="918141231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918145263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918145263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918141231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$AA$83:$AB$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Actual cost </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Remaining Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AA$84:$AB$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D11-0F4A-9EDE-EFE787FEC864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Progress Percentage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Progress Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$AA$86:$AB$86</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AA$87:$AB$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-352D-7C4A-A6A0-5BAFDB97312C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1275319168"/>
+        <c:axId val="1209298864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1275319168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209298864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1209298864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275319168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -875,8 +2693,2727 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1411,6 +5948,192 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A546717-793C-9348-B7FE-B4748A859474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75C2FCB-751D-634B-9397-037A5E328973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A8A527-9F03-7841-B6DD-158EF4A6AA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAAE3ED-3852-9944-B585-FD0E19BB65B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7056</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>187677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>98777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1388C3-8FFB-6C41-84BD-E99CDB74B15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1716,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7C37A-BA4E-AD41-9F0A-D096FB2B1015}">
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R52" workbookViewId="0">
-      <selection activeCell="Z85" sqref="Z85"/>
+    <sheetView tabSelected="1" topLeftCell="P60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA81" sqref="AA81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,94 +6463,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.2">
@@ -1846,26 +6569,26 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1884,22 +6607,22 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1920,26 +6643,26 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.2">
@@ -1958,26 +6681,26 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1998,22 +6721,22 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2037,153 +6760,153 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="25" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2204,22 +6927,22 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2240,129 +6963,129 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="F33" s="5" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="F33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="K33" s="5" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="K33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
     </row>
     <row r="34" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="F35" s="5" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="F35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="K35" s="5" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="K35" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
     </row>
     <row r="36" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="F37" s="5" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="F37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="K37" s="5" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="K37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
     </row>
     <row r="38" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="F39" s="5" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="F39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="K39" s="5" t="s">
+      <c r="G39" s="18"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="K39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
     </row>
     <row r="40" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="F41" s="5" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="F41" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="K41" s="5" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="K41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
     </row>
     <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -2375,150 +7098,150 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="5"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20" t="s">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="16" t="s">
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
     </row>
     <row r="46" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="K46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="23" t="s">
+      <c r="L46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M46" s="23" t="s">
+      <c r="M46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N46" s="23" t="s">
+      <c r="N46" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
@@ -2537,24 +7260,24 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
@@ -2768,60 +7491,338 @@
       <c r="Z69" t="s">
         <v>63</v>
       </c>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="33"/>
-      <c r="AC69" s="33"/>
-      <c r="AD69" s="33"/>
-      <c r="AE69" s="33"/>
-      <c r="AF69" s="33"/>
+      <c r="AA69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF69" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="21" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="I70" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
       <c r="Z70" t="s">
         <v>64</v>
+      </c>
+      <c r="AA70" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="Z72" t="s">
         <v>65</v>
       </c>
+      <c r="AA72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF72" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="Z73" t="s">
         <v>64</v>
       </c>
+      <c r="AA73" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="Z76" t="s">
         <v>66</v>
       </c>
+      <c r="AA76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF76" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="Z77" t="s">
         <v>67</v>
       </c>
+      <c r="AA77" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="Z80" t="s">
         <v>68</v>
       </c>
+      <c r="AA80" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB80" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC80" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD80" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE80" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF80" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="81" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="Z81" t="s">
         <v>69</v>
       </c>
+      <c r="AA81" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z83" t="s">
-        <v>70</v>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AA83" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="84" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z84" t="s">
-        <v>71</v>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AA84" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="AB84" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AA86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="21" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="I87" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="AA87" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="AB87" s="35">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="102">
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="I87:N87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K41:L41"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="I52:N52"/>
     <mergeCell ref="E28:I28"/>
@@ -2838,88 +7839,6 @@
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/storage/templates/dashboard.xlsx
+++ b/storage/templates/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/code/cost-control/storage/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF5D2DA-4D51-C844-B782-98B4CCAC77C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F4C26-1F18-114A-9798-3E7DAD90C037}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15560" xr2:uid="{5FBE2839-F582-2646-B20D-A87EA405C870}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>AlKifah Contracting Company</t>
   </si>
@@ -283,15 +283,26 @@
   <si>
     <t>Planned</t>
   </si>
+  <si>
+    <t>Revenue Statement</t>
+  </si>
+  <si>
+    <t>Planned Value</t>
+  </si>
+  <si>
+    <t>Earned Value</t>
+  </si>
+  <si>
+    <t>Actual Invoice value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -565,7 +576,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -623,16 +634,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -660,20 +668,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -686,12 +700,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -716,9 +727,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -758,7 +769,7 @@
             <c:numRef>
               <c:f>Dashboard!$AA$70:$AF$70</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -797,6 +808,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="918141231"/>
         <c:axId val="918145263"/>
@@ -814,14 +846,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -830,12 +856,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -857,67 +880,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="918141231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -943,13 +911,12 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1137,7 +1104,7 @@
             <c:numRef>
               <c:f>Dashboard!$AA$73:$AF$73</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1266,7 +1233,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1516,7 +1483,7 @@
             <c:numRef>
               <c:f>Dashboard!$AA$77:$AF$77</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1645,7 +1612,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1895,7 +1862,7 @@
             <c:numRef>
               <c:f>Dashboard!$AA$81:$AF$81</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2024,7 +1991,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2428,11 +2395,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dashboard!$I$87</c:f>
+              <c:f>Dashboard!$AA$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Progress Percentage</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2448,29 +2415,21 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$AA$86:$AB$86</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planned</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Dashboard!$Z$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$AA$87:$AB$87</c:f>
+              <c:f>Dashboard!$AA$87</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2482,6 +2441,71 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$AB$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dashboard!$Z$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AB$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-352D-7C4A-A6A0-5BAFDB97312C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2490,7 +2514,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1275319168"/>
         <c:axId val="1209298864"/>
       </c:barChart>
@@ -2609,6 +2633,613 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Progress Percentage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$AA$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dashboard!$X$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AA$90</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63FC-4A49-9DD1-CE78E624EC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$AB$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Earned Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dashboard!$X$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AB$90</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-63FC-4A49-9DD1-CE78E624EC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$AC$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Invoice value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dashboard!$X$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AC$90</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-63FC-4A49-9DD1-CE78E624EC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1275319168"/>
+        <c:axId val="1209298864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1275319168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209298864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1209298864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1275319168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2893,95 +3524,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2998,9 +3662,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3013,9 +3682,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -3023,17 +3697,24 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="38100" cap="rnd">
-        <a:solidFill>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -3051,7 +3732,7 @@
       </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3071,21 +3752,20 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3093,7 +3773,9 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -3102,15 +3784,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3124,19 +3806,28 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -3145,13 +3836,18 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -3163,7 +3859,9 @@
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -3172,9 +3870,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3182,26 +3879,28 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -3210,9 +3909,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -3220,7 +3919,9 @@
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -3229,9 +3930,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3242,14 +3943,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3257,7 +3955,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3266,30 +3964,20 @@
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -3298,12 +3986,13 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3311,27 +4000,24 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3342,15 +4028,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -3358,13 +4043,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3375,10 +4062,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -5413,6 +6097,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6139,6 +7326,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112888</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>832554</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74782928-5C98-9C49-BA50-608FC662BADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6439,10 +7664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7C37A-BA4E-AD41-9F0A-D096FB2B1015}">
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA81" sqref="AA81"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB77" sqref="AB77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7735,12 +8960,45 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AA89" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AA90" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="103">
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="I70:N70"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="I87:N87"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>

--- a/storage/templates/dashboard.xlsx
+++ b/storage/templates/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/code/cost-control/storage/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F4C26-1F18-114A-9798-3E7DAD90C037}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C7DDF6-2005-0745-9325-3987839EAFC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15560" xr2:uid="{5FBE2839-F582-2646-B20D-A87EA405C870}"/>
   </bookViews>
@@ -573,10 +573,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7666,8 +7668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7C37A-BA4E-AD41-9F0A-D096FB2B1015}">
   <dimension ref="A1:AF105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB77" sqref="AB77"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7688,44 +7690,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="E6" s="32" t="s">
@@ -8755,22 +8757,22 @@
       <c r="Z70" t="s">
         <v>64</v>
       </c>
-      <c r="AA70" s="36">
+      <c r="AA70" s="35">
         <v>0</v>
       </c>
-      <c r="AB70" s="36">
+      <c r="AB70" s="35">
         <v>0</v>
       </c>
-      <c r="AC70" s="36">
+      <c r="AC70" s="35">
         <v>0</v>
       </c>
-      <c r="AD70" s="36">
+      <c r="AD70" s="35">
         <v>0</v>
       </c>
-      <c r="AE70" s="36">
+      <c r="AE70" s="35">
         <v>0</v>
       </c>
-      <c r="AF70" s="36">
+      <c r="AF70" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8801,22 +8803,22 @@
       <c r="Z73" t="s">
         <v>64</v>
       </c>
-      <c r="AA73" s="36">
+      <c r="AA73" s="35">
         <v>0</v>
       </c>
-      <c r="AB73" s="36">
+      <c r="AB73" s="35">
         <v>0</v>
       </c>
-      <c r="AC73" s="36">
+      <c r="AC73" s="35">
         <v>0</v>
       </c>
-      <c r="AD73" s="36">
+      <c r="AD73" s="35">
         <v>0</v>
       </c>
-      <c r="AE73" s="36">
+      <c r="AE73" s="35">
         <v>0</v>
       </c>
-      <c r="AF73" s="36">
+      <c r="AF73" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8847,22 +8849,22 @@
       <c r="Z77" t="s">
         <v>67</v>
       </c>
-      <c r="AA77" s="36">
+      <c r="AA77" s="35">
         <v>0</v>
       </c>
-      <c r="AB77" s="36">
+      <c r="AB77" s="35">
         <v>0</v>
       </c>
-      <c r="AC77" s="36">
+      <c r="AC77" s="35">
         <v>0</v>
       </c>
-      <c r="AD77" s="36">
+      <c r="AD77" s="35">
         <v>0</v>
       </c>
-      <c r="AE77" s="36">
+      <c r="AE77" s="35">
         <v>0</v>
       </c>
-      <c r="AF77" s="36">
+      <c r="AF77" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8893,22 +8895,22 @@
       <c r="Z81" t="s">
         <v>69</v>
       </c>
-      <c r="AA81" s="36">
+      <c r="AA81" s="35">
         <v>0</v>
       </c>
-      <c r="AB81" s="36">
+      <c r="AB81" s="35">
         <v>0</v>
       </c>
-      <c r="AC81" s="36">
+      <c r="AC81" s="35">
         <v>0</v>
       </c>
-      <c r="AD81" s="36">
+      <c r="AD81" s="35">
         <v>0</v>
       </c>
-      <c r="AE81" s="36">
+      <c r="AE81" s="35">
         <v>0</v>
       </c>
-      <c r="AF81" s="36">
+      <c r="AF81" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8921,10 +8923,10 @@
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AA84" s="34">
+      <c r="AA84" s="33">
         <v>0.5</v>
       </c>
-      <c r="AB84" s="34">
+      <c r="AB84" s="33">
         <v>0.5</v>
       </c>
     </row>
@@ -8953,10 +8955,10 @@
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
-      <c r="AA87" s="35">
+      <c r="AA87" s="34">
         <v>0.5</v>
       </c>
-      <c r="AB87" s="35">
+      <c r="AB87" s="34">
         <v>0.5</v>
       </c>
     </row>
@@ -8972,13 +8974,13 @@
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AA90" s="36">
+      <c r="AA90" s="35">
         <v>0</v>
       </c>
-      <c r="AB90" s="36">
+      <c r="AB90" s="35">
         <v>0</v>
       </c>
-      <c r="AC90" s="36">
+      <c r="AC90" s="35">
         <v>0</v>
       </c>
     </row>

--- a/storage/templates/dashboard.xlsx
+++ b/storage/templates/dashboard.xlsx
@@ -8,36 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/code/cost-control/storage/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C7DDF6-2005-0745-9325-3987839EAFC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32BBBF1-5E4F-DD45-B9AC-29D24E3483DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15560" xr2:uid="{5FBE2839-F582-2646-B20D-A87EA405C870}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Dashboard!$A$87</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Dashboard!$AA$83:$AB$83</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Dashboard!$AA$83:$AB$83</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Dashboard!$AA$84:$AB$84</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Dashboard!$A$87</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Dashboard!$AA$83:$AB$83</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Dashboard!$AA$84:$AB$84</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Dashboard!$AA$86:$AB$86</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Dashboard!$AA$87:$AB$87</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Dashboard!$I$87</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Dashboard!$A$87</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Dashboard!$AA$83:$AB$83</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Dashboard!$AA$84:$AB$84</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Dashboard!$AA$84:$AB$84</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Dashboard!$AA$86:$AB$86</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Dashboard!$AA$87:$AB$87</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Dashboard!$I$87</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Dashboard!$AA$86:$AB$86</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Dashboard!$AA$87:$AB$87</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Dashboard!$I$87</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Dashboard!$A$87</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -300,9 +277,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -390,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -473,13 +451,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -506,12 +543,89 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="1" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -527,56 +641,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="40" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,7 +846,7 @@
             <c:numRef>
               <c:f>Dashboard!$AA$70:$AF$70</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -884,7 +959,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1106,7 +1181,7 @@
             <c:numRef>
               <c:f>Dashboard!$AA$73:$AF$73</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1235,7 +1310,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1485,7 +1560,7 @@
             <c:numRef>
               <c:f>Dashboard!$AA$77:$AF$77</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1614,7 +1689,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1864,7 +1939,7 @@
             <c:numRef>
               <c:f>Dashboard!$AA$81:$AF$81</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1993,7 +2068,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2157,6 +2232,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3ED6-6A46-8E78-11E040B7E1CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2172,7 +2252,67 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3ED6-6A46-8E78-11E040B7E1CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Dashboard!$AA$83:$AB$83</c:f>
@@ -2213,7 +2353,7 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -2228,7 +2368,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2241,7 +2381,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2416,6 +2556,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Dashboard!$Z$128</c:f>
@@ -2480,7 +2677,69 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1D70-264B-BBD4-987D7D908D04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Dashboard!$Z$128</c:f>
@@ -2510,13 +2769,14 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
         <c:axId val="1275319168"/>
         <c:axId val="1209298864"/>
       </c:barChart>
@@ -2576,53 +2836,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1275319168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2636,7 +2855,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7145,13 +7364,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:colOff>942623</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>691445</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -7220,14 +7439,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>973667</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>691445</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -7294,14 +7513,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7056</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>980723</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>187677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>14111</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>705556</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>98777</xdr:rowOff>
     </xdr:to>
@@ -7668,8 +7887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7C37A-BA4E-AD41-9F0A-D096FB2B1015}">
   <dimension ref="A1:AF105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7690,98 +7909,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -7796,30 +8018,30 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -7834,26 +8056,26 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -7870,30 +8092,30 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7908,30 +8130,30 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -7948,26 +8170,26 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -7984,160 +8206,160 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="15" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="46"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="46"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="46"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="46"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8154,22 +8376,22 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -8190,129 +8412,129 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="F33" s="18" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="F33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="K33" s="18" t="s">
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="K33" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="F35" s="18" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="F35" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="K35" s="18" t="s">
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="K35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="F37" s="18" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="F37" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="K37" s="18" t="s">
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="K37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="F39" s="18" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="F39" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="K39" s="18" t="s">
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="K39" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
     </row>
     <row r="40" spans="1:14" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="F41" s="18" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="F41" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="K41" s="18" t="s">
+      <c r="G41" s="21"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="K41" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -8339,24 +8561,24 @@
       <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
       <c r="H45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="23" t="s">
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
     </row>
     <row r="46" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -8394,15 +8616,15 @@
       <c r="M46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="N46" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -8414,13 +8636,13 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -8432,13 +8654,13 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -8450,13 +8672,13 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -8468,7 +8690,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
+      <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
@@ -8487,24 +8709,24 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
@@ -8738,41 +8960,41 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="21" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="I70" s="10" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="I70" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
       <c r="Z70" t="s">
         <v>64</v>
       </c>
-      <c r="AA70" s="35">
+      <c r="AA70" s="48">
         <v>0</v>
       </c>
-      <c r="AB70" s="35">
+      <c r="AB70" s="48">
         <v>0</v>
       </c>
-      <c r="AC70" s="35">
+      <c r="AC70" s="48">
         <v>0</v>
       </c>
-      <c r="AD70" s="35">
+      <c r="AD70" s="48">
         <v>0</v>
       </c>
-      <c r="AE70" s="35">
+      <c r="AE70" s="48">
         <v>0</v>
       </c>
-      <c r="AF70" s="35">
+      <c r="AF70" s="48">
         <v>0</v>
       </c>
     </row>
@@ -8803,22 +9025,22 @@
       <c r="Z73" t="s">
         <v>64</v>
       </c>
-      <c r="AA73" s="35">
+      <c r="AA73" s="48">
         <v>0</v>
       </c>
-      <c r="AB73" s="35">
+      <c r="AB73" s="48">
         <v>0</v>
       </c>
-      <c r="AC73" s="35">
+      <c r="AC73" s="48">
         <v>0</v>
       </c>
-      <c r="AD73" s="35">
+      <c r="AD73" s="48">
         <v>0</v>
       </c>
-      <c r="AE73" s="35">
+      <c r="AE73" s="48">
         <v>0</v>
       </c>
-      <c r="AF73" s="35">
+      <c r="AF73" s="48">
         <v>0</v>
       </c>
     </row>
@@ -8849,22 +9071,22 @@
       <c r="Z77" t="s">
         <v>67</v>
       </c>
-      <c r="AA77" s="35">
+      <c r="AA77" s="48">
         <v>0</v>
       </c>
-      <c r="AB77" s="35">
+      <c r="AB77" s="48">
         <v>0</v>
       </c>
-      <c r="AC77" s="35">
+      <c r="AC77" s="48">
         <v>0</v>
       </c>
-      <c r="AD77" s="35">
+      <c r="AD77" s="48">
         <v>0</v>
       </c>
-      <c r="AE77" s="35">
+      <c r="AE77" s="48">
         <v>0</v>
       </c>
-      <c r="AF77" s="35">
+      <c r="AF77" s="48">
         <v>0</v>
       </c>
     </row>
@@ -8895,22 +9117,22 @@
       <c r="Z81" t="s">
         <v>69</v>
       </c>
-      <c r="AA81" s="35">
+      <c r="AA81" s="48">
         <v>0</v>
       </c>
-      <c r="AB81" s="35">
+      <c r="AB81" s="48">
         <v>0</v>
       </c>
-      <c r="AC81" s="35">
+      <c r="AC81" s="48">
         <v>0</v>
       </c>
-      <c r="AD81" s="35">
+      <c r="AD81" s="48">
         <v>0</v>
       </c>
-      <c r="AE81" s="35">
+      <c r="AE81" s="48">
         <v>0</v>
       </c>
-      <c r="AF81" s="35">
+      <c r="AF81" s="48">
         <v>0</v>
       </c>
     </row>
@@ -8923,10 +9145,10 @@
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AA84" s="33">
+      <c r="AA84" s="10">
         <v>0.5</v>
       </c>
-      <c r="AB84" s="33">
+      <c r="AB84" s="10">
         <v>0.5</v>
       </c>
     </row>
@@ -8939,26 +9161,26 @@
       </c>
     </row>
     <row r="87" spans="1:32" ht="21" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="I87" s="10" t="s">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="I87" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="AA87" s="34">
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="AA87" s="11">
         <v>0.5</v>
       </c>
-      <c r="AB87" s="34">
+      <c r="AB87" s="11">
         <v>0.5</v>
       </c>
     </row>
@@ -8974,28 +9196,107 @@
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AA90" s="35">
+      <c r="AA90" s="12">
         <v>0</v>
       </c>
-      <c r="AB90" s="35">
+      <c r="AB90" s="12">
         <v>0</v>
       </c>
-      <c r="AC90" s="35">
+      <c r="AC90" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="I70:N70"/>
     <mergeCell ref="A87:F87"/>
@@ -9020,85 +9321,6 @@
     <mergeCell ref="A14:N14"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
